--- a/Perceptron_AND_OR_NOT/perceptron.xlsx
+++ b/Perceptron_AND_OR_NOT/perceptron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmeono\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmeono\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="4">
   <si>
     <t>&amp;</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>OR</t>
+  </si>
+  <si>
+    <t>NOT</t>
   </si>
 </sst>
 </file>
@@ -351,16 +354,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N13"/>
+  <dimension ref="B2:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
     <col min="6" max="6" width="2" bestFit="1" customWidth="1"/>
@@ -432,6 +435,9 @@
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L4">
         <v>0</v>
       </c>
@@ -461,6 +467,9 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="L5">
         <v>-30</v>
       </c>
@@ -489,6 +498,9 @@
       </c>
       <c r="I6">
         <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -536,6 +548,9 @@
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -556,6 +571,9 @@
       <c r="F11">
         <v>1</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N11">
         <v>1</v>
       </c>
@@ -576,6 +594,9 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N12">
         <v>0</v>
       </c>
@@ -596,8 +617,114 @@
       <c r="F13">
         <v>1</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="N13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>-30</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>-15</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>-15</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
